--- a/hardware/IntelliModule-Alpha-Baseboard/IntelliModule-Alpha-Baseboard-BillOfMaterials.xlsx
+++ b/hardware/IntelliModule-Alpha-Baseboard/IntelliModule-Alpha-Baseboard-BillOfMaterials.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C033EC-5F8F-4A18-A8E4-198F66D3ED08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2BD5F4-B931-4D2D-B746-3A126AC73768}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw BOM Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="163">
   <si>
     <t>Comment</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>Unit Price:</t>
+  </si>
+  <si>
+    <t>Use AP3402KTTR-G1 instead</t>
   </si>
 </sst>
 </file>
@@ -629,11 +632,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,11 +1650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E78FC2-A3E1-4959-884F-11794EAA8765}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24:H24"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1674,8 +1677,8 @@
     <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="17" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2476,6 +2479,9 @@
       <c r="J24" s="10">
         <v>0.36899999999999999</v>
       </c>
+      <c r="K24" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="10" t="s">
         <v>99</v>
@@ -2504,7 +2510,7 @@
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I28" s="18"/>
+      <c r="I28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
